--- a/MS Excel/sales_book.xlsx
+++ b/MS Excel/sales_book.xlsx
@@ -704,7 +704,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -772,15 +772,15 @@
         <v>2</v>
       </c>
       <c r="G2" s="5">
-        <v>25000</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="5">
         <f>G2*E2</f>
-        <v>500000</v>
+        <v>20000</v>
       </c>
       <c r="I2" s="5">
         <f>G2*F2</f>
-        <v>50000</v>
+        <v>2000</v>
       </c>
       <c r="J2" s="6">
         <v>50000</v>
@@ -808,15 +808,15 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G51" ca="1" si="1">RANDBETWEEN(10,30)*100</f>
-        <v>1400</v>
+        <v>2900</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H51" ca="1" si="2">G3*E3</f>
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" ref="I3:I51" ca="1" si="3">G3*F3</f>
-        <v>1400</v>
+        <v>2900</v>
       </c>
       <c r="J3" s="6">
         <v>50000</v>
@@ -844,15 +844,15 @@
       </c>
       <c r="G4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>189000</v>
+        <v>168000</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>32400</v>
+        <v>28800</v>
       </c>
       <c r="J4" s="6">
         <v>50000</v>
@@ -916,15 +916,15 @@
       </c>
       <c r="G6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>192000</v>
+        <v>360000</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>12800</v>
+        <v>24000</v>
       </c>
       <c r="J6" s="6">
         <v>50000</v>
@@ -955,15 +955,15 @@
       </c>
       <c r="G7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2900</v>
+        <v>1700</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5800</v>
+        <v>3400</v>
       </c>
       <c r="J7" s="6">
         <v>50000</v>
@@ -991,15 +991,15 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="J8" s="6">
         <v>50000</v>
@@ -1027,15 +1027,15 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>46000</v>
+        <v>26000</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4600</v>
+        <v>2600</v>
       </c>
       <c r="J9" s="6">
         <v>50000</v>
@@ -1063,15 +1063,15 @@
       </c>
       <c r="G10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="J10" s="6">
         <v>50000</v>
@@ -1099,15 +1099,15 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4000</v>
+        <v>5400</v>
       </c>
       <c r="J11" s="6">
         <v>50000</v>
@@ -1135,15 +1135,15 @@
       </c>
       <c r="G12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>44000</v>
+        <v>28000</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4400</v>
+        <v>2800</v>
       </c>
       <c r="J12" s="6">
         <v>50000</v>
@@ -1171,15 +1171,15 @@
       </c>
       <c r="G13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="J13" s="6">
         <v>50000</v>
@@ -1207,15 +1207,15 @@
       </c>
       <c r="G14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="J14" s="6">
         <v>50000</v>
@@ -1243,15 +1243,15 @@
       </c>
       <c r="G15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2100</v>
+        <v>2900</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6300</v>
+        <v>8700</v>
       </c>
       <c r="J15" s="6">
         <v>50000</v>
@@ -1279,15 +1279,15 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>120000</v>
+        <v>300000</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="J16" s="6">
         <v>50000</v>
@@ -1315,15 +1315,15 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="J17" s="6">
         <v>50000</v>
@@ -1351,15 +1351,15 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="J18" s="6">
         <v>50000</v>
@@ -1387,15 +1387,15 @@
       </c>
       <c r="G19" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>44000</v>
+        <v>58000</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4400</v>
+        <v>5800</v>
       </c>
       <c r="J19" s="6">
         <v>50000</v>
@@ -1423,15 +1423,15 @@
       </c>
       <c r="G20" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="J20" s="6">
         <v>50000</v>
@@ -1459,15 +1459,15 @@
       </c>
       <c r="G21" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="J21" s="6">
         <v>50000</v>
@@ -1495,15 +1495,15 @@
       </c>
       <c r="G22" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>44000</v>
+        <v>20000</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="J22" s="6">
         <v>50000</v>
@@ -1531,15 +1531,15 @@
       </c>
       <c r="G23" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="J23" s="6">
         <v>50000</v>
@@ -1567,15 +1567,15 @@
       </c>
       <c r="G24" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>196000</v>
+        <v>84000</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>33600</v>
+        <v>14400</v>
       </c>
       <c r="J24" s="6">
         <v>50000</v>
@@ -1603,15 +1603,15 @@
       </c>
       <c r="G25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6300</v>
+        <v>6900</v>
       </c>
       <c r="J25" s="6">
         <v>50000</v>
@@ -1639,15 +1639,15 @@
       </c>
       <c r="G26" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>336000</v>
+        <v>228000</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>22400</v>
+        <v>15200</v>
       </c>
       <c r="J26" s="6">
         <v>50000</v>
@@ -1675,15 +1675,15 @@
       </c>
       <c r="G27" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4200</v>
+        <v>4800</v>
       </c>
       <c r="J27" s="6">
         <v>50000</v>
@@ -1711,15 +1711,15 @@
       </c>
       <c r="G28" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="J28" s="6">
         <v>50000</v>
@@ -1747,15 +1747,15 @@
       </c>
       <c r="G29" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>56000</v>
+        <v>58000</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="J29" s="6">
         <v>50000</v>
@@ -1783,15 +1783,15 @@
       </c>
       <c r="G30" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3200</v>
+        <v>4800</v>
       </c>
       <c r="J30" s="6">
         <v>50000</v>
@@ -1819,15 +1819,15 @@
       </c>
       <c r="G31" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="J31" s="6">
         <v>50000</v>
@@ -1855,15 +1855,15 @@
       </c>
       <c r="G32" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="J32" s="6">
         <v>50000</v>
@@ -1891,15 +1891,15 @@
       </c>
       <c r="G33" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="J33" s="6">
         <v>50000</v>
@@ -1927,15 +1927,15 @@
       </c>
       <c r="G34" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>189000</v>
+        <v>210000</v>
       </c>
       <c r="I34" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="J34" s="6">
         <v>50000</v>
@@ -1963,15 +1963,15 @@
       </c>
       <c r="G35" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2900</v>
+        <v>1300</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>29000</v>
+        <v>13000</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>8700</v>
+        <v>3900</v>
       </c>
       <c r="J35" s="6">
         <v>50000</v>
@@ -1999,15 +1999,15 @@
       </c>
       <c r="G36" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>264000</v>
+        <v>144000</v>
       </c>
       <c r="I36" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>17600</v>
+        <v>9600</v>
       </c>
       <c r="J36" s="6">
         <v>50000</v>
@@ -2035,15 +2035,15 @@
       </c>
       <c r="G37" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="J37" s="6">
         <v>50000</v>
@@ -2071,15 +2071,15 @@
       </c>
       <c r="G38" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>38000</v>
+        <v>20000</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="J38" s="6">
         <v>50000</v>
@@ -2107,15 +2107,15 @@
       </c>
       <c r="G39" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>44000</v>
+        <v>52000</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4400</v>
+        <v>5200</v>
       </c>
       <c r="J39" s="6">
         <v>50000</v>
@@ -2143,15 +2143,15 @@
       </c>
       <c r="G40" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="I40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="J40" s="6">
         <v>50000</v>
@@ -2179,15 +2179,15 @@
       </c>
       <c r="G41" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="I41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5600</v>
+        <v>4600</v>
       </c>
       <c r="J41" s="6">
         <v>50000</v>
@@ -2215,15 +2215,15 @@
       </c>
       <c r="G42" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>54000</v>
+        <v>38000</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5400</v>
+        <v>3800</v>
       </c>
       <c r="J42" s="6">
         <v>50000</v>
@@ -2287,15 +2287,15 @@
       </c>
       <c r="G44" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>98000</v>
+        <v>175000</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>16800</v>
+        <v>30000</v>
       </c>
       <c r="J44" s="6">
         <v>50000</v>
@@ -2323,15 +2323,15 @@
       </c>
       <c r="G45" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="H45" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="I45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5700</v>
+        <v>3000</v>
       </c>
       <c r="J45" s="6">
         <v>50000</v>
@@ -2359,15 +2359,15 @@
       </c>
       <c r="G46" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>180000</v>
+        <v>252000</v>
       </c>
       <c r="I46" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>12000</v>
+        <v>16800</v>
       </c>
       <c r="J46" s="6">
         <v>50000</v>
@@ -2395,15 +2395,15 @@
       </c>
       <c r="G47" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H47" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="I47" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="J47" s="6">
         <v>50000</v>
@@ -2431,15 +2431,15 @@
       </c>
       <c r="G48" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H48" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="I48" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="J48" s="6">
         <v>50000</v>
@@ -2467,15 +2467,15 @@
       </c>
       <c r="G49" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="H49" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>42000</v>
+        <v>54000</v>
       </c>
       <c r="I49" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4200</v>
+        <v>5400</v>
       </c>
       <c r="J49" s="6">
         <v>50000</v>
@@ -2503,15 +2503,15 @@
       </c>
       <c r="G50" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H50" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="I50" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="J50" s="6">
         <v>50000</v>
@@ -2539,15 +2539,15 @@
       </c>
       <c r="G51" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="H51" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="I51" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4200</v>
+        <v>3800</v>
       </c>
       <c r="J51" s="6">
         <v>50000</v>
